--- a/data/Trade Promo Brief Template - WK2 Catch it quick.xlsx
+++ b/data/Trade Promo Brief Template - WK2 Catch it quick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greencrosslimited-my.sharepoint.com/personal/laura_scheetz_gxltd_com_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/rodalmia_deloitte_com_au/Documents/Desktop/Work/Python/Greencross/Image-Web-Scraping/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B65C777-CAF9-48AD-AA20-5441721EB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6B65C777-CAF9-48AD-AA20-5441721EB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7533CAB0-AD9E-41AD-B842-659CF860F99B}"/>
   <bookViews>
-    <workbookView xWindow="-16965" yWindow="-16530" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="7" r:id="rId1"/>
@@ -1753,10 +1753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,8 +2864,8 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
@@ -2951,12 +2951,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,39 +2999,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,9 +3046,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3788,7 +3788,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
@@ -3803,49 +3803,49 @@
     <col min="17" max="31" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="183"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="F1" s="182" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="184"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="F1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="182"/>
+      <c r="G1" s="183"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="O1" s="178" t="s">
+      <c r="O1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="179"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
+      <c r="P1" s="180"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="O2" s="180" t="s">
+      <c r="O2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="181"/>
-    </row>
-    <row r="3" spans="1:34" s="2" customFormat="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
+      <c r="P2" s="182"/>
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
       <c r="O3" s="22" t="s">
         <v>3</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="48">
+    <row r="5" spans="1:34" ht="48" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="184" t="s">
+      <c r="M5" s="185" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="22" t="s">
@@ -3913,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="48">
+    <row r="6" spans="1:34" ht="48" x14ac:dyDescent="0.25">
       <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="L6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="185"/>
+      <c r="M6" s="186"/>
       <c r="O6" s="22" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="24">
+    <row r="7" spans="1:34" ht="24" x14ac:dyDescent="0.25">
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="L7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="185"/>
+      <c r="M7" s="186"/>
       <c r="O7" s="22" t="s">
         <v>37</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="24">
+    <row r="8" spans="1:34" ht="24" x14ac:dyDescent="0.25">
       <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="L8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="185"/>
+      <c r="M8" s="186"/>
       <c r="O8" s="22" t="s">
         <v>42</v>
       </c>
@@ -3991,27 +3991,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="21" customHeight="1">
+    <row r="9" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="187" t="s">
+      <c r="H9" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="187" t="s">
+      <c r="I9" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="187" t="s">
+      <c r="J9" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="187" t="s">
+      <c r="K9" s="188" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="185"/>
+      <c r="M9" s="186"/>
       <c r="O9" s="24" t="s">
         <v>49</v>
       </c>
@@ -4019,19 +4019,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="24">
+    <row r="10" spans="1:34" ht="24" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
       <c r="L10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="185"/>
+      <c r="M10" s="186"/>
       <c r="O10" s="22" t="s">
         <v>53</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="48">
+    <row r="11" spans="1:34" ht="48" x14ac:dyDescent="0.25">
       <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="186"/>
+      <c r="M11" s="187"/>
       <c r="O11" s="22" t="s">
         <v>57</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F12" s="12" t="s">
         <v>59</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F13" s="18"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -4106,7 +4106,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F14" s="18"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4116,7 +4116,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="2"/>
@@ -4126,7 +4126,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F16" s="57"/>
       <c r="G16" s="85" t="s">
         <v>62</v>
@@ -4153,7 +4153,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="5:34" ht="60">
+    <row r="17" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="F17" s="77" t="s">
         <v>69</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="5:34">
+    <row r="18" spans="5:34" x14ac:dyDescent="0.25">
       <c r="E18" s="73"/>
       <c r="F18" s="30"/>
       <c r="G18" s="84"/>
@@ -4197,7 +4197,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="5:34">
+    <row r="19" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4210,7 +4210,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="5:34">
+    <row r="20" spans="5:34" x14ac:dyDescent="0.25">
       <c r="E20" s="73"/>
       <c r="F20" s="83"/>
       <c r="G20" s="85" t="s">
@@ -4238,7 +4238,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="5:34" ht="60">
+    <row r="21" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="F21" s="80" t="s">
         <v>73</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="5:34">
+    <row r="22" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F22" s="30"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
@@ -4281,7 +4281,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="5:34">
+    <row r="23" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4294,7 +4294,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="5:34">
+    <row r="24" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F24" s="83"/>
       <c r="G24" s="85" t="s">
         <v>62</v>
@@ -4321,7 +4321,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="5:34" ht="60">
+    <row r="25" spans="5:34" ht="60" x14ac:dyDescent="0.25">
       <c r="F25" s="48" t="s">
         <v>76</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="5:34">
+    <row r="26" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F26" s="30"/>
       <c r="G26" s="29"/>
       <c r="H26" s="28"/>
@@ -4364,7 +4364,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="5:34">
+    <row r="27" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -4374,7 +4374,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="5:34">
+    <row r="28" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4384,7 +4384,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="5:34">
+    <row r="29" spans="5:34" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4394,7 +4394,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="5:34" ht="15" customHeight="1">
+    <row r="30" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="5:34" ht="15" customHeight="1">
+    <row r="31" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4414,7 +4414,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="5:34" ht="15" customHeight="1">
+    <row r="32" spans="5:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -4424,7 +4424,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="6:13" ht="15" customHeight="1">
+    <row r="33" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4434,7 +4434,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="6:13" ht="15" customHeight="1">
+    <row r="34" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4444,7 +4444,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="6:13" ht="15" customHeight="1">
+    <row r="35" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -4454,7 +4454,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="6:13" ht="15" customHeight="1">
+    <row r="36" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -4464,7 +4464,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="6:13" ht="15" customHeight="1">
+    <row r="37" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4474,7 +4474,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="6:13" ht="15" customHeight="1">
+    <row r="38" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="6:13" ht="15" customHeight="1">
+    <row r="39" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4494,7 +4494,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="6:13" ht="15" customHeight="1">
+    <row r="40" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4504,7 +4504,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="6:13" ht="15" customHeight="1">
+    <row r="41" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4514,7 +4514,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="6:13" ht="15" customHeight="1">
+    <row r="42" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4524,7 +4524,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="6:13" ht="15" customHeight="1">
+    <row r="43" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -4534,7 +4534,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="6:13" ht="15" customHeight="1">
+    <row r="44" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4544,7 +4544,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="6:13" ht="15" customHeight="1">
+    <row r="45" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4554,7 +4554,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="6:13" ht="15" customHeight="1">
+    <row r="46" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -4564,7 +4564,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="6:13" ht="15" customHeight="1">
+    <row r="47" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4574,7 +4574,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="6:13" ht="15" customHeight="1">
+    <row r="48" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4584,7 +4584,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="6:13" ht="15" customHeight="1">
+    <row r="49" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4594,7 +4594,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="6:13" ht="15" customHeight="1">
+    <row r="50" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4604,7 +4604,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="6:13" ht="15" customHeight="1">
+    <row r="51" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4614,7 +4614,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="6:13" ht="15" customHeight="1">
+    <row r="52" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4624,7 +4624,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="6:13" ht="15" customHeight="1">
+    <row r="53" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -4634,7 +4634,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="6:13" ht="15" customHeight="1">
+    <row r="54" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4644,7 +4644,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="6:13" ht="15" customHeight="1">
+    <row r="55" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4654,7 +4654,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="6:13" ht="15" customHeight="1">
+    <row r="56" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -4664,7 +4664,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="6:13" ht="15" customHeight="1">
+    <row r="57" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -4705,7 +4705,7 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -4716,73 +4716,73 @@
     <col min="7" max="31" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="43"/>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="E1" s="191" t="s">
+      <c r="C1" s="201"/>
+      <c r="E1" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="191"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="192" t="s">
+      <c r="F1" s="201"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="E2" s="192" t="s">
+      <c r="C2" s="202"/>
+      <c r="E2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="192"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="196" t="s">
+      <c r="F2" s="202"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="197"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="B4" s="193" t="s">
+      <c r="F3" s="195"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="194"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="193" t="s">
+      <c r="E4" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="194"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+      <c r="F4" s="198"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="2"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
         <v>0</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="195" t="s">
+      <c r="E6" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="195"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
+      <c r="F6" s="196"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>84</v>
       </c>
@@ -4795,12 +4795,12 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="199"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="200"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>88</v>
       </c>
@@ -4811,25 +4811,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="201"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="193"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="201"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="193"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>95</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
         <v>98</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
         <v>101</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
         <v>104</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>107</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
         <v>110</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="75" t="s">
         <v>113</v>
       </c>
@@ -4906,36 +4906,36 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="196" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="197"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="B20" s="193" t="s">
+      <c r="C19" s="195"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="194"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
+      <c r="C20" s="198"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>0</v>
       </c>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="195"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="196"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
         <v>84</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
         <v>88</v>
       </c>
@@ -4957,16 +4957,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="201"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="193"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="75" t="s">
         <v>93</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
         <v>95</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
         <v>98</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>101</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
         <v>104</v>
       </c>
@@ -5021,36 +5021,36 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="196" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="197"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75">
-      <c r="B33" s="193" t="s">
+      <c r="C32" s="195"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="194"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
+      <c r="C33" s="198"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>0</v>
       </c>
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="195"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="196"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
         <v>84</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="201"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="193"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
         <v>93</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
         <v>95</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
         <v>98</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="75" t="s">
         <v>101</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
         <v>104</v>
       </c>
@@ -5125,505 +5125,505 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E7 F3:F5 C3:C5 C21 B32:C34 C23:C24 C11:C18 C7:C8 C26:C30 B1:B30 C38:C1048576 C36 B35:B1048576" xr:uid="{4E168678-5D17-4F4F-9114-BE48A2237927}"/>
@@ -5640,13 +5640,13 @@
   <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -5668,13 +5668,13 @@
     <col min="18" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
       <c r="F1" s="31"/>
       <c r="G1" s="98" t="s">
         <v>142</v>
@@ -5689,11 +5689,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="31"/>
       <c r="G2" s="47" t="s">
         <v>69</v>
@@ -5708,13 +5708,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="B3" s="204" t="s">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41"/>
       <c r="G3" s="48" t="s">
         <v>145</v>
@@ -5729,7 +5729,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="20"/>
@@ -5742,7 +5742,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1">
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
       <c r="D5" s="20"/>
@@ -5754,24 +5754,24 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>3</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
     </row>
-    <row r="9" spans="1:21" ht="90">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="75">
+    <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>89</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45">
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>118</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>119</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="45">
+    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>90</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>6</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="P15" s="120"/>
       <c r="Q15" s="120"/>
     </row>
-    <row r="16" spans="1:21" ht="30">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
         <v>96</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="60">
+    <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>5</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="36" t="s">
         <v>134</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="P19" s="121"/>
       <c r="Q19" s="121"/>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="70"/>
     </row>
-    <row r="21" spans="1:17" ht="45">
+    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="36" t="s">
         <v>103</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>121</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45">
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
         <v>122</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="P25" s="120"/>
       <c r="Q25" s="120"/>
     </row>
-    <row r="26" spans="1:17" ht="45">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>19</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="45">
+    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
         <v>129</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45">
+    <row r="28" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
         <v>135</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="88" t="s">
         <v>283</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="P29" s="120"/>
       <c r="Q29" s="120"/>
     </row>
-    <row r="30" spans="1:17" ht="45">
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
         <v>112</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="30">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
         <v>130</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>20</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>21</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="P33" s="70"/>
       <c r="Q33" s="70"/>
     </row>
-    <row r="34" spans="1:20" s="33" customFormat="1" ht="90">
+    <row r="34" spans="1:20" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>22</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="33" customFormat="1" ht="60">
+    <row r="35" spans="1:20" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" s="60" t="s">
         <v>120</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="33" customFormat="1" ht="60">
+    <row r="36" spans="1:20" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="60" t="s">
         <v>133</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>23</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="P37" s="120"/>
       <c r="Q37" s="120"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="75">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>24</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="60">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="93" t="s">
         <v>100</v>
@@ -7049,7 +7049,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="30">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="93" t="s">
         <v>127</v>
@@ -7088,7 +7088,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="45">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="93" t="s">
         <v>128</v>
@@ -7129,7 +7129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="45">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="93" t="s">
         <v>136</v>
@@ -7170,7 +7170,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>25</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>31</v>
       </c>
@@ -7214,7 +7214,7 @@
       <c r="P44" s="70"/>
       <c r="Q44" s="70"/>
     </row>
-    <row r="45" spans="1:20" ht="45">
+    <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="F45" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="G45" s="207" t="s">
+      <c r="G45" s="178" t="s">
         <v>350</v>
       </c>
       <c r="H45" s="36"/>
@@ -7257,7 +7257,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30">
+    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>33</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="45">
+    <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="45">
+    <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
         <v>109</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="45">
+    <row r="49" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
         <v>123</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="45">
+    <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="36" t="s">
         <v>124</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="45">
+    <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
         <v>125</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="30">
+    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
         <v>126</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="45">
+    <row r="53" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>137</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="45">
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
         <v>138</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="30">
+    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>139</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="45">
+    <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="36" t="s">
         <v>140</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="30">
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="115" t="s">
         <v>94</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="2" customFormat="1">
+    <row r="58" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>35</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="P58" s="121"/>
       <c r="Q58" s="121"/>
     </row>
-    <row r="59" spans="1:17" s="2" customFormat="1">
+    <row r="59" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>36</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="P59" s="70"/>
       <c r="Q59" s="70"/>
     </row>
-    <row r="60" spans="1:17" s="2" customFormat="1" ht="45">
+    <row r="60" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>37</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="61" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>38</v>
       </c>
@@ -7847,13 +7847,13 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="2" customFormat="1">
+    <row r="62" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="C62" s="31"/>
       <c r="F62" s="31"/>
       <c r="H62" s="31"/>
     </row>
-    <row r="63" spans="1:17" s="2" customFormat="1">
+    <row r="63" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>43</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="P63" s="70"/>
       <c r="Q63" s="70"/>
     </row>
-    <row r="64" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="64" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>44</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="65" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="60" t="s">
         <v>442</v>
@@ -7956,7 +7956,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="66" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="60" t="s">
         <v>445</v>
@@ -7995,7 +7995,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="60" t="s">
         <v>448</v>
@@ -8034,7 +8034,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="45">
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>46</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="2" customFormat="1">
+    <row r="69" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="60" t="s">
         <v>455</v>
@@ -8092,7 +8092,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="2" customFormat="1">
+    <row r="70" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>47</v>
       </c>
@@ -8121,7 +8121,7 @@
       <c r="P70" s="72"/>
       <c r="Q70" s="72"/>
     </row>
-    <row r="71" spans="1:17" s="2" customFormat="1" ht="345">
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>47</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="P71" s="72"/>
       <c r="Q71" s="72"/>
     </row>
-    <row r="72" spans="1:17" s="33" customFormat="1">
+    <row r="72" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>77</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v xml:space="preserve">   ILCs:    Shop now: </v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="2"/>
@@ -8187,7 +8187,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
       <c r="D74" s="2"/>
@@ -8199,7 +8199,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
       <c r="D75" s="2"/>
@@ -8211,7 +8211,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
       <c r="D76" s="2"/>
@@ -8223,7 +8223,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="2"/>
@@ -8235,7 +8235,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
       <c r="D78" s="2"/>
@@ -8247,7 +8247,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
       <c r="D79" s="2"/>
@@ -8259,7 +8259,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
       <c r="D80" s="2"/>
@@ -8271,7 +8271,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
       <c r="D81" s="2"/>
@@ -8283,7 +8283,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
       <c r="D82" s="2"/>
@@ -8295,7 +8295,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
       <c r="D83" s="2"/>
@@ -8307,7 +8307,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
       <c r="D84" s="2"/>
@@ -8319,7 +8319,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
       <c r="D85" s="2"/>
@@ -8331,7 +8331,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
       <c r="D86" s="2"/>
@@ -8343,7 +8343,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
       <c r="D87" s="2"/>
@@ -8355,7 +8355,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="2"/>
@@ -8367,7 +8367,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
       <c r="D89" s="2"/>
@@ -8379,7 +8379,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
       <c r="D90" s="2"/>
@@ -8391,7 +8391,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
       <c r="D91" s="2"/>
@@ -8403,7 +8403,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
       <c r="D92" s="2"/>
@@ -8415,7 +8415,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="2"/>
@@ -8427,7 +8427,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="2"/>
@@ -8439,7 +8439,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="31"/>
       <c r="C95" s="31"/>
       <c r="D95" s="2"/>
@@ -8451,7 +8451,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
       <c r="D96" s="2"/>
@@ -8463,7 +8463,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
       <c r="D97" s="2"/>
@@ -8475,7 +8475,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
       <c r="D98" s="2"/>
@@ -8487,7 +8487,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
       <c r="D99" s="2"/>
@@ -8499,7 +8499,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
       <c r="D100" s="2"/>
@@ -8511,7 +8511,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
       <c r="D101" s="2"/>
@@ -8523,7 +8523,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
       <c r="D102" s="2"/>
@@ -8535,7 +8535,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
       <c r="D103" s="2"/>
@@ -8547,7 +8547,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
       <c r="D104" s="2"/>
@@ -8559,7 +8559,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
       <c r="D105" s="2"/>
@@ -8571,7 +8571,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
       <c r="D106" s="2"/>
@@ -8583,7 +8583,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="2"/>
@@ -8595,7 +8595,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
       <c r="D108" s="2"/>
@@ -8607,7 +8607,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="2"/>
@@ -8619,7 +8619,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
       <c r="D110" s="2"/>
@@ -8765,12 +8765,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B10" sqref="B10:Q10"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -8792,13 +8792,13 @@
     <col min="18" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
       <c r="F1" s="31"/>
       <c r="G1" s="98" t="s">
         <v>142</v>
@@ -8813,11 +8813,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="31"/>
       <c r="G2" s="47" t="s">
         <v>69</v>
@@ -8832,13 +8832,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="B3" s="204" t="s">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41"/>
       <c r="G3" s="48" t="s">
         <v>145</v>
@@ -8853,7 +8853,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="20"/>
@@ -8866,7 +8866,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1">
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
       <c r="D5" s="20"/>
@@ -8878,24 +8878,24 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>3</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
     </row>
-    <row r="9" spans="1:21" ht="90">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="45">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>86</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="75">
+    <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>90</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="90">
+    <row r="13" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>6</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>15</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>96</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="60">
+    <row r="16" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>5</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="75">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60">
+    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="45">
+    <row r="19" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>102</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="45">
+    <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>18</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="45">
+    <row r="21" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>19</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="30">
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="145" t="s">
         <v>106</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="45">
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>108</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="45">
+    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="45">
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="33" customFormat="1" ht="45">
+    <row r="26" spans="1:20" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="45">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>24</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="45">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="39" t="s">
         <v>114</v>
@@ -9838,7 +9838,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="30">
+    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>31</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="345">
+    <row r="31" spans="1:20" ht="345" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>32</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="P31" s="141"/>
       <c r="Q31" s="141"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="2"/>
@@ -9945,7 +9945,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="2"/>
@@ -9957,7 +9957,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="2"/>
@@ -9969,7 +9969,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="2"/>
@@ -9981,7 +9981,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="2"/>
@@ -9993,7 +9993,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="2"/>
@@ -10005,7 +10005,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="D38" s="2"/>
@@ -10017,7 +10017,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="2"/>
@@ -10029,7 +10029,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="2"/>
@@ -10041,7 +10041,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="2"/>
@@ -10053,7 +10053,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="2"/>
@@ -10065,7 +10065,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="2"/>
@@ -10077,7 +10077,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="2"/>
@@ -10089,7 +10089,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="2"/>
@@ -10101,7 +10101,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="2"/>
@@ -10113,7 +10113,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="2"/>
@@ -10125,7 +10125,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="2"/>
@@ -10137,7 +10137,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="2"/>
@@ -10149,7 +10149,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="2"/>
@@ -10161,7 +10161,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="2"/>
@@ -10173,7 +10173,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="2"/>
@@ -10185,7 +10185,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="2"/>
@@ -10197,7 +10197,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="2"/>
@@ -10209,7 +10209,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="2"/>
@@ -10221,7 +10221,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="2"/>
@@ -10233,7 +10233,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="D57" s="2"/>
@@ -10245,7 +10245,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="D58" s="2"/>
@@ -10257,7 +10257,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="2"/>
@@ -10269,7 +10269,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
       <c r="D60" s="2"/>
@@ -10281,7 +10281,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
       <c r="D61" s="2"/>
@@ -10293,7 +10293,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="2"/>
@@ -10305,7 +10305,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
       <c r="D63" s="2"/>
@@ -10317,7 +10317,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
       <c r="D64" s="2"/>
@@ -10329,7 +10329,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="2"/>
@@ -10341,7 +10341,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="2"/>
@@ -10353,7 +10353,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
       <c r="D67" s="2"/>
@@ -10365,7 +10365,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
       <c r="D68" s="2"/>
@@ -10377,7 +10377,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
       <c r="D69" s="2"/>
@@ -10472,12 +10472,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B12" sqref="B12:Q12"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -10499,13 +10499,13 @@
     <col min="18" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
       <c r="F1" s="31"/>
       <c r="G1" s="98" t="s">
         <v>142</v>
@@ -10520,11 +10520,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="31"/>
       <c r="G2" s="47" t="s">
         <v>69</v>
@@ -10539,13 +10539,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="B3" s="204" t="s">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41"/>
       <c r="G3" s="48" t="s">
         <v>145</v>
@@ -10560,7 +10560,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="20"/>
@@ -10573,7 +10573,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1">
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
       <c r="D5" s="20"/>
@@ -10585,24 +10585,24 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="90">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="45">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>118</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="75">
+    <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>119</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="60">
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>16</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>17</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="45">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
         <v>122</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="45">
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
         <v>123</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="45">
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>19</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="45">
+    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="145" t="s">
         <v>125</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>126</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>21</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="33" customFormat="1" ht="45">
+    <row r="21" spans="1:19" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>128</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="45">
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>24</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>31</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>32</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="45">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="60" t="s">
         <v>450</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="345">
+    <row r="26" spans="1:19" ht="345" x14ac:dyDescent="0.25">
       <c r="B26" s="60" t="s">
         <v>459</v>
       </c>
@@ -11430,7 +11430,7 @@
       <c r="P26" s="141"/>
       <c r="Q26" s="141"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="2"/>
@@ -11442,7 +11442,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="2"/>
@@ -11454,7 +11454,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="2"/>
@@ -11466,7 +11466,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="2"/>
@@ -11478,7 +11478,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="2"/>
@@ -11490,7 +11490,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="2"/>
@@ -11502,7 +11502,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="2"/>
@@ -11514,7 +11514,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="2"/>
@@ -11526,7 +11526,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="2"/>
@@ -11538,7 +11538,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="2"/>
@@ -11550,7 +11550,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="2"/>
@@ -11562,7 +11562,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="D38" s="2"/>
@@ -11574,7 +11574,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="2"/>
@@ -11586,7 +11586,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="2"/>
@@ -11598,7 +11598,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="2"/>
@@ -11610,7 +11610,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="2"/>
@@ -11622,7 +11622,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="2"/>
@@ -11634,7 +11634,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="2"/>
@@ -11646,7 +11646,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="2"/>
@@ -11658,7 +11658,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="2"/>
@@ -11670,7 +11670,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="2"/>
@@ -11682,7 +11682,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="2"/>
@@ -11694,7 +11694,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="2"/>
@@ -11706,7 +11706,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="2"/>
@@ -11718,7 +11718,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="2"/>
@@ -11730,7 +11730,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="2"/>
@@ -11742,7 +11742,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="2"/>
@@ -11754,7 +11754,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="2"/>
@@ -11766,7 +11766,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="2"/>
@@ -11778,7 +11778,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="2"/>
@@ -11790,7 +11790,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="D57" s="2"/>
@@ -11802,7 +11802,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="D58" s="2"/>
@@ -11814,7 +11814,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="2"/>
@@ -11826,7 +11826,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
       <c r="D60" s="2"/>
@@ -11838,7 +11838,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
       <c r="D61" s="2"/>
@@ -11931,12 +11931,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -11958,13 +11958,13 @@
     <col min="18" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
       <c r="F1" s="31"/>
       <c r="G1" s="98" t="s">
         <v>142</v>
@@ -11979,11 +11979,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="31"/>
       <c r="G2" s="47" t="s">
         <v>69</v>
@@ -11998,13 +11998,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="B3" s="204" t="s">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41"/>
       <c r="G3" s="48" t="s">
         <v>145</v>
@@ -12019,7 +12019,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="20"/>
@@ -12032,7 +12032,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1">
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
       <c r="D5" s="20"/>
@@ -12044,24 +12044,24 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>3</v>
       </c>
@@ -12167,7 +12167,7 @@
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
         <v>86</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="45">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
         <v>90</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>6</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
         <v>96</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="60">
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>5</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>134</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="45">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="45">
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>16</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
         <v>112</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45">
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>18</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="45">
+    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>138</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30">
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="145" t="s">
         <v>139</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45">
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>21</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="33" customFormat="1">
+    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
         <v>455</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="45">
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>23</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="345">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="95" t="s">
         <v>459</v>
@@ -12808,7 +12808,7 @@
       <c r="P24" s="130"/>
       <c r="Q24" s="130"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="2"/>
@@ -12820,7 +12820,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="2"/>
@@ -12832,7 +12832,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="2"/>
@@ -12844,7 +12844,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="2"/>
@@ -12856,7 +12856,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="2"/>
@@ -12868,7 +12868,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="2"/>
@@ -12880,7 +12880,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="2"/>
@@ -12892,7 +12892,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="2"/>
@@ -12904,7 +12904,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="2"/>
@@ -12916,7 +12916,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="2"/>
@@ -12928,7 +12928,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="2"/>
@@ -12940,7 +12940,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="2"/>
@@ -12952,7 +12952,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="2"/>
@@ -12964,7 +12964,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="D38" s="2"/>
@@ -12976,7 +12976,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="2"/>
@@ -12988,7 +12988,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="2"/>
@@ -13000,7 +13000,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="2"/>
@@ -13012,7 +13012,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="2"/>
@@ -13024,7 +13024,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="2"/>
@@ -13036,7 +13036,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="2"/>
@@ -13048,7 +13048,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="2"/>
@@ -13060,7 +13060,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="2"/>
@@ -13072,7 +13072,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="2"/>
@@ -13084,7 +13084,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="2"/>
@@ -13096,7 +13096,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="2"/>
@@ -13108,7 +13108,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="2"/>
@@ -13120,7 +13120,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="2"/>
@@ -13132,7 +13132,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="2"/>
@@ -13144,7 +13144,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="2"/>
@@ -13156,7 +13156,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="2"/>
@@ -13168,7 +13168,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="2"/>
@@ -13180,7 +13180,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="2"/>
@@ -13192,7 +13192,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="D57" s="2"/>
@@ -13204,7 +13204,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="D58" s="2"/>
@@ -13216,7 +13216,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="2"/>
@@ -13228,7 +13228,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
       <c r="D60" s="2"/>
@@ -13240,7 +13240,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
       <c r="D61" s="2"/>
@@ -13252,7 +13252,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="2"/>
@@ -13333,12 +13333,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -13360,13 +13360,13 @@
     <col min="18" max="27" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="B1" s="202" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
       <c r="F1" s="31"/>
       <c r="G1" s="98" t="s">
         <v>142</v>
@@ -13381,11 +13381,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="31"/>
       <c r="G2" s="47" t="s">
         <v>69</v>
@@ -13400,13 +13400,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
-      <c r="B3" s="204" t="s">
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="41"/>
       <c r="G3" s="48" t="s">
         <v>145</v>
@@ -13421,7 +13421,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="35.25" customHeight="1">
+    <row r="4" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="20"/>
@@ -13434,7 +13434,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1">
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65"/>
       <c r="D5" s="20"/>
@@ -13446,24 +13446,24 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="206" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="60" t="s">
         <v>448</v>
@@ -13565,7 +13565,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>47</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="P9" s="141"/>
       <c r="Q9" s="141"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="345">
+    <row r="10" spans="1:21" s="2" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>47</v>
       </c>
@@ -13627,7 +13627,7 @@
       <c r="P10" s="141"/>
       <c r="Q10" s="141"/>
     </row>
-    <row r="11" spans="1:21" s="33" customFormat="1">
+    <row r="11" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>77</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v xml:space="preserve">   ILCs:    Shop now: </v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
@@ -13660,7 +13660,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="2"/>
@@ -13672,7 +13672,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="2"/>
@@ -13684,7 +13684,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="2"/>
@@ -13696,7 +13696,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="2"/>
@@ -13708,7 +13708,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="2"/>
@@ -13720,7 +13720,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
@@ -13732,7 +13732,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="2"/>
@@ -13744,7 +13744,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
@@ -13756,7 +13756,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="2"/>
@@ -13768,7 +13768,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
@@ -13780,7 +13780,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="2"/>
@@ -13792,7 +13792,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="2"/>
@@ -13804,7 +13804,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="2"/>
@@ -13816,7 +13816,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="2"/>
@@ -13828,7 +13828,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="2"/>
@@ -13840,7 +13840,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="2"/>
@@ -13852,7 +13852,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="2"/>
@@ -13864,7 +13864,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="2"/>
@@ -13876,7 +13876,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="2"/>
@@ -13888,7 +13888,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="2"/>
@@ -13900,7 +13900,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="2"/>
@@ -13912,7 +13912,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="2"/>
@@ -13924,7 +13924,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="2"/>
@@ -13936,7 +13936,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="2"/>
@@ -13948,7 +13948,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="2"/>
@@ -13960,7 +13960,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="D38" s="2"/>
@@ -13972,7 +13972,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="2"/>
@@ -13984,7 +13984,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="2"/>
@@ -13996,7 +13996,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="2"/>
@@ -14008,7 +14008,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="2"/>
@@ -14020,7 +14020,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="2"/>
@@ -14032,7 +14032,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="2"/>
@@ -14044,7 +14044,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="2"/>
@@ -14056,7 +14056,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="2"/>
@@ -14068,7 +14068,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="2"/>
@@ -14080,7 +14080,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="2"/>
@@ -14092,7 +14092,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="2"/>
@@ -14144,7 +14144,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -14157,48 +14157,48 @@
     <col min="9" max="32" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21">
-      <c r="B1" s="206" t="s">
+    <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="207" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="2:12" ht="21">
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="2:12" ht="21">
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="2:12" s="2" customFormat="1" ht="21">
+    <row r="4" spans="2:12" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14211,7 +14211,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>463</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="75">
+    <row r="6" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="50" t="s">
         <v>470</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="75">
+    <row r="7" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="50" t="s">
         <v>44</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="75">
+    <row r="8" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="50" t="s">
         <v>44</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="75">
+    <row r="9" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="55" t="s">
         <v>44</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="75">
+    <row r="10" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
         <v>44</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="75">
+    <row r="11" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
         <v>44</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="75">
+    <row r="12" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
         <v>44</v>
       </c>
@@ -14379,7 +14379,7 @@
       <c r="G12" s="109"/>
       <c r="H12" s="109"/>
     </row>
-    <row r="13" spans="2:12" ht="75">
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
         <v>44</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="75">
+    <row r="14" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="s">
         <v>44</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="75">
+    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="50" t="s">
         <v>44</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="75">
+    <row r="16" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="50" t="s">
         <v>44</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="75">
+    <row r="17" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
         <v>44</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="75">
+    <row r="18" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="54" t="s">
         <v>44</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="75">
+    <row r="19" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="54" t="s">
         <v>44</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="75">
+    <row r="20" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="54" t="s">
         <v>44</v>
       </c>
@@ -14545,7 +14545,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="109"/>
     </row>
-    <row r="21" spans="2:8" ht="75">
+    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="112" t="s">
         <v>44</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="G21" s="50"/>
       <c r="H21" s="109"/>
     </row>
-    <row r="22" spans="2:8" ht="75">
+    <row r="22" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="s">
         <v>504</v>
       </c>
@@ -14583,7 +14583,7 @@
       <c r="G22" s="108"/>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="2:8" ht="75">
+    <row r="23" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="50" t="s">
         <v>504</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="G23" s="114"/>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="2:8" ht="75">
+    <row r="24" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="50" t="s">
         <v>504</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="75">
+    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
         <v>504</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="75">
+    <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="50" t="s">
         <v>504</v>
       </c>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="2:8" ht="75">
+    <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="50" t="s">
         <v>504</v>
       </c>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="2:8" ht="75">
+    <row r="28" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="50" t="s">
         <v>504</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="G28" s="108"/>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="2:8" ht="75">
+    <row r="29" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
         <v>504</v>
       </c>
@@ -14724,7 +14724,7 @@
       <c r="G29" s="108"/>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="2:8" ht="75">
+    <row r="30" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="50" t="s">
         <v>504</v>
       </c>
@@ -14743,7 +14743,7 @@
       <c r="G30" s="108"/>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="2:8" ht="75">
+    <row r="31" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
         <v>504</v>
       </c>
@@ -14762,7 +14762,7 @@
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
     </row>
-    <row r="32" spans="2:8" ht="75">
+    <row r="32" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="50" t="s">
         <v>504</v>
       </c>
@@ -14781,7 +14781,7 @@
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
     </row>
-    <row r="33" spans="2:8" ht="75">
+    <row r="33" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B33" s="50" t="s">
         <v>504</v>
       </c>
@@ -14800,7 +14800,7 @@
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="2:8" ht="75">
+    <row r="34" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" s="50" t="s">
         <v>504</v>
       </c>
@@ -14819,7 +14819,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -14827,7 +14827,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -14835,7 +14835,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -14843,7 +14843,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -14851,7 +14851,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -14859,7 +14859,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -14867,7 +14867,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -14875,7 +14875,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -14883,7 +14883,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -14891,7 +14891,7 @@
       <c r="F43" s="21"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -14899,7 +14899,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -14907,7 +14907,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -14915,7 +14915,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -14923,7 +14923,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -14931,7 +14931,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
@@ -14939,7 +14939,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -14947,7 +14947,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -14955,7 +14955,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -14963,7 +14963,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -14971,7 +14971,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -14979,7 +14979,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -14987,7 +14987,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -15005,6 +15005,45 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0686363-9f0c-47fb-ae02-12d072ae143b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8">
+      <UserInfo>
+        <DisplayName>Mali McCutcheon</DisplayName>
+        <AccountId>4245</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Laura Scheetz</DisplayName>
+        <AccountId>662</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kelham Cliffe</DisplayName>
+        <AccountId>3970</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006363DC14358BDE418DB8344B55CF6411" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="338cd0572d42505aa56fbc56ad96bb04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e0686363-9f0c-47fb-ae02-12d072ae143b" xmlns:ns3="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6373a4d9e5d137b00b2ce6a99a315c9" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15276,53 +15315,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0686363-9f0c-47fb-ae02-12d072ae143b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8">
-      <UserInfo>
-        <DisplayName>Mali McCutcheon</DisplayName>
-        <AccountId>4245</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Laura Scheetz</DisplayName>
-        <AccountId>662</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kelham Cliffe</DisplayName>
-        <AccountId>3970</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6258-F94D-4A70-ABAD-4D8F570C49D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6888317B-EA56-493D-9204-D3E3ADFF68DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8"/>
+    <ds:schemaRef ds:uri="e0686363-9f0c-47fb-ae02-12d072ae143b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3134C554-71BA-4DCA-B23E-4CED9F78578F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3134C554-71BA-4DCA-B23E-4CED9F78578F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6888317B-EA56-493D-9204-D3E3ADFF68DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6258-F94D-4A70-ABAD-4D8F570C49D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e0686363-9f0c-47fb-ae02-12d072ae143b"/>
+    <ds:schemaRef ds:uri="c5c85ca9-75e2-4cbf-9943-c4ded903b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>